--- a/CityWasteManagement/appcontainer/algorithmData/test_data.xlsx
+++ b/CityWasteManagement/appcontainer/algorithmData/test_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorg\Documents\GitHub\City-Waste-Management\CityWasteManagement\appcontainer\algorithmData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38C4609-AE39-4E99-B4CD-BCDE55AAE607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288C5EE1-0709-4298-B442-14E81DCA52D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{348F3FB3-7B72-4A34-A47A-3FF92E34CF25}"/>
   </bookViews>
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4F8979-23B5-4ADD-B2DE-4843383C2467}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,7 +413,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -421,7 +421,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -485,7 +485,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -493,7 +493,7 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -557,7 +557,7 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -565,7 +565,7 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -573,7 +573,7 @@
         <v>9</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -613,7 +613,7 @@
         <v>14</v>
       </c>
       <c r="B27">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -621,6 +621,990 @@
         <v>15</v>
       </c>
       <c r="B28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>17</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>18</v>
+      </c>
+      <c r="B41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>17</v>
+      </c>
+      <c r="B50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>18</v>
+      </c>
+      <c r="B51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>10</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>11</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>12</v>
+      </c>
+      <c r="B55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>13</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>14</v>
+      </c>
+      <c r="B57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>15</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>16</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>17</v>
+      </c>
+      <c r="B60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>18</v>
+      </c>
+      <c r="B61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>10</v>
+      </c>
+      <c r="B63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>11</v>
+      </c>
+      <c r="B64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>12</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>13</v>
+      </c>
+      <c r="B66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>14</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>15</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>16</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>17</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>18</v>
+      </c>
+      <c r="B71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>10</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>11</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>12</v>
+      </c>
+      <c r="B75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>13</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>14</v>
+      </c>
+      <c r="B77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>15</v>
+      </c>
+      <c r="B78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>16</v>
+      </c>
+      <c r="B79">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>17</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>18</v>
+      </c>
+      <c r="B81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>9</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>10</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>11</v>
+      </c>
+      <c r="B84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>12</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>13</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>14</v>
+      </c>
+      <c r="B87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>15</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>16</v>
+      </c>
+      <c r="B89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>17</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>18</v>
+      </c>
+      <c r="B91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>9</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>10</v>
+      </c>
+      <c r="B93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>11</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>12</v>
+      </c>
+      <c r="B95">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>13</v>
+      </c>
+      <c r="B96">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>14</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>15</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>16</v>
+      </c>
+      <c r="B99">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>17</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>18</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>9</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>10</v>
+      </c>
+      <c r="B103">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>11</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>12</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>13</v>
+      </c>
+      <c r="B106">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>14</v>
+      </c>
+      <c r="B107">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>15</v>
+      </c>
+      <c r="B108">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>16</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>17</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>18</v>
+      </c>
+      <c r="B111">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>9</v>
+      </c>
+      <c r="B112">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>10</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>11</v>
+      </c>
+      <c r="B114">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>12</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>13</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>14</v>
+      </c>
+      <c r="B117">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>15</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>16</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>17</v>
+      </c>
+      <c r="B120">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>18</v>
+      </c>
+      <c r="B121">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>9</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>10</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>11</v>
+      </c>
+      <c r="B124">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>12</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>13</v>
+      </c>
+      <c r="B126">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>14</v>
+      </c>
+      <c r="B127">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>15</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>16</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>17</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>18</v>
+      </c>
+      <c r="B131">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>9</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>10</v>
+      </c>
+      <c r="B133">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>11</v>
+      </c>
+      <c r="B134">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>12</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>13</v>
+      </c>
+      <c r="B136">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>14</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>15</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>16</v>
+      </c>
+      <c r="B139">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>17</v>
+      </c>
+      <c r="B140">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>18</v>
+      </c>
+      <c r="B141">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>9</v>
+      </c>
+      <c r="B142">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>10</v>
+      </c>
+      <c r="B143">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>11</v>
+      </c>
+      <c r="B144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>12</v>
+      </c>
+      <c r="B145">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>13</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>14</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>15</v>
+      </c>
+      <c r="B148">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>16</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>17</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>18</v>
+      </c>
+      <c r="B151">
         <v>100</v>
       </c>
     </row>
